--- a/biology/Botanique/Aotus_(plante)/Aotus_(plante).xlsx
+++ b/biology/Botanique/Aotus_(plante)/Aotus_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aotus est un genre de plantes légumineuses de la famille des Fabaceae. Il est endémique de l’Australie où on le trouve dans tous les États sauf le Territoire du Nord.
 Certaines espèces sont utilisées comme plantes ornementales.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (2 septembre 2014)[2] et The Plant List            (2 septembre 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (2 septembre 2014) et The Plant List            (2 septembre 2014) :
 Aotus carinata Meissner
 Aotus cordifolia Benth.
 Aotus ericoides (Vent.) G.Don
@@ -529,12 +543,12 @@
 Aotus subglauca Blakeley &amp; McKie
 Aotus subspinescens (Benth.) Crisp
 Aotus tietkensii F.Muell.
-Selon GRIN            (2 septembre 2014)[4] :
+Selon GRIN            (2 septembre 2014) :
 Aotus ericoides (Vent.) G. Don
 Aotus lanigera A. Cunn. ex Benth.
 Aotus preissii Meisn.
 Aotus tietkinsii F. Muell.
-Selon Tropicos                                           (2 septembre 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 septembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Aotus carinata Meisn.
 Aotus coccinea Dum. Cours.
 Aotus cordifolia Benth.
